--- a/TranslationData.xlsx
+++ b/TranslationData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>English</t>
   </si>
@@ -70,6 +70,12 @@
     <t>Update {0}</t>
   </si>
   <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
     <t>{0}\nをアップデートする</t>
   </si>
   <si>
@@ -100,7 +106,13 @@
     <t>{0}をアップデート中\nしばらくお待ちください....</t>
   </si>
   <si>
-    <t/>
+    <t>SSPSettings</t>
+  </si>
+  <si>
+    <t>&lt;color=#8cfc03&gt;SuperSimplePlus&lt;/color&gt; Settings</t>
+  </si>
+  <si>
+    <t>&lt;color=#8cfc03&gt;SuperSimplePlus&lt;/color&gt;の設定</t>
   </si>
 </sst>
 </file>
@@ -150,15 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -189,7 +198,7 @@
       <totalsRowFormula>Sum</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -481,29 +490,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -557,15 +566,19 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -575,19 +588,19 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -600,19 +613,19 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -625,19 +638,19 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -650,7 +663,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -658,8 +671,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -670,7 +687,9 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -772,12 +791,8 @@
       <c r="Q11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -788,13 +803,144 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
